--- a/eclipse-workspace/guru99Project/guru99Excel.xlsx
+++ b/eclipse-workspace/guru99Project/guru99Excel.xlsx
@@ -2,16 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>userName</t>
   </si>
@@ -29,12 +31,19 @@
   </si>
   <si>
     <t>invalidPassword</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>passed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -287,6 +296,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -332,6 +342,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/eclipse-workspace/guru99Project/guru99Excel.xlsx
+++ b/eclipse-workspace/guru99Project/guru99Excel.xlsx
@@ -2,18 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView activeTab="0"/>
-  </bookViews>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
+  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>userName</t>
   </si>
@@ -21,35 +19,29 @@
     <t>password</t>
   </si>
   <si>
-    <t>mngr293142</t>
-  </si>
-  <si>
-    <t>Egugyje</t>
+    <t>mngr300111</t>
+  </si>
+  <si>
+    <t>mAgemUz</t>
   </si>
   <si>
     <t>invalidUser</t>
   </si>
   <si>
     <t>invalidPassword</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>passed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -75,7 +67,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -83,6 +75,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -296,7 +291,6 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -319,7 +313,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -330,32 +324,16 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
